--- a/2025-10-18/18_fixtures.xlsx
+++ b/2025-10-18/18_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lion City Sailors  - Young Lions: 12:30</t>
+          <t>Lion City Sailors ✓ - Young Lions: 5:1</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -507,8 +507,13 @@
           <t>75%</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H2" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -556,7 +561,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ezra FC  - Lao Army FC: 10:00</t>
+          <t>Ezra FC ✓ - Lao Army FC: 7:0</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -575,8 +580,13 @@
           <t>73%</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -590,15 +600,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Al-Rayyan SC  - Al-Waab SC: 17:30</t>
+          <t>POT Iraklis Thessaloniki ✓ - PAOK Thessaloniki B: 2:1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.51</v>
+        <v>1.75</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Rayyan SC</t>
+          <t>POT Iraklis Thessaloniki</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -606,11 +616,16 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -624,15 +639,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GNK Dinamo Zagreb  - NK Osijek: 17:00</t>
+          <t>AS Saint-Étienne  - Le Mans FC: 19:00</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>GNK Dinamo Zagreb</t>
+          <t>AS Saint-Étienne</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -640,11 +655,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -658,15 +673,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mold Alexandra - The New Saints : 14:00</t>
+          <t>Vorskla Poltava - Bukovyna Chernivtsi ✓: 0:2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.91</v>
+        <v>1.12</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Bukovyna Chernivtsi</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -674,14 +689,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -692,27 +712,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bayern Munich  - Borussia Dortmund: 17:30</t>
+          <t>FC Paços de Ferreira - Sporting CP : 20:15</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.08</v>
+        <v>2.31</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -726,27 +746,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PSV Eindhoven  - Go Ahead Eagles: 17:45</t>
+          <t>UE Santa Coloma B - Sporting Club Escaldes : 19:30</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4.18</v>
+        <v>2.64</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Sporting Club Escaldes</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -760,27 +780,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FC Basel 1893  - FC Winterthur: 17:00</t>
+          <t>Västerås SK ✓ - GIF Sundsvall: 2:1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.2</v>
+        <v>1.54</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FC Basel 1893</t>
+          <t>Västerås SK</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -794,15 +819,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>POT Iraklis Thessaloniki  - PAOK Thessaloniki B: 12:00</t>
+          <t>FC Zbrojovka Brno ✓ - FC Banik Ostrava B: 4:1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>POT Iraklis Thessaloniki</t>
+          <t>FC Zbrojovka Brno</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -810,11 +835,16 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -828,30 +858,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo  - Lokomotiv Gorna Oryahovitsa: 18:15</t>
+          <t>Thep Xanh Nam Dinh FC X - Becamex Ho Chi Minh City FC: 1:2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.98</v>
+        <v>3.4</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Thep Xanh Nam Dinh FC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -862,27 +897,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AS Saint-Étienne  - Le Mans FC: 19:00</t>
+          <t>Kalmar FF ✓ - IK Oddevold: 3:2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1.16</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>AS Saint-Étienne</t>
+          <t>Kalmar FF</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -896,15 +936,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Vorskla Poltava - Bukovyna Chernivtsi : 10:00</t>
+          <t>Jwaya SC ✓ - Racing Club Beirut: 7:0</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.12</v>
+        <v>1.5</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bukovyna Chernivtsi</t>
+          <t>Jwaya SC</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -912,11 +952,16 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -930,27 +975,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FC Paços de Ferreira - Sporting CP : 20:15</t>
+          <t>Lokomotiv Tashkent  - FK FarDU: 11:00</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.31</v>
+        <v>1.33</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Lokomotiv Tashkent</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -964,27 +1009,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Manchester City  - Everton FC: 15:00</t>
+          <t>Maharlika FC ✓ - Philippine Army FC: 5:1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.5</v>
+        <v>2.49</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Maharlika FC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>62%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -998,15 +1048,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>UE Santa Coloma B - Sporting Club Escaldes : 19:30</t>
+          <t>Charleston Battery  - Detroit City FC: 23:00</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.64</v>
+        <v>2.05</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sporting Club Escaldes</t>
+          <t>Charleston Battery</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1014,11 +1064,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -1032,15 +1082,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Västerås SK  - GIF Sundsvall: 12:00</t>
+          <t>V-Varen Nagasaki ✓ - Ventforet Kofu: 4:0</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Västerås SK</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1048,11 +1098,16 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -1066,27 +1121,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ironi Kiryat Shmona - Hapoel Beer Sheva : 17:30</t>
+          <t>Al-Ain FC ✓ - FC Baniyas: 4:0</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva</t>
+          <t>Al-Ain FC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -1100,15 +1160,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Basaksehir FK - Galatasaray : 18:00</t>
+          <t>Club Nacional  - Miramar Misiones: 22:30</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.83</v>
+        <v>2.46</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Club Nacional</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1116,11 +1176,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -1134,15 +1194,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FC Zbrojovka Brno  - FC Banik Ostrava B: 14:30</t>
+          <t>SC Paderborn 07 ✓ - Arminia Bielefeld: 4:3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FC Zbrojovka Brno</t>
+          <t>SC Paderborn 07</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1150,11 +1210,16 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -1168,27 +1233,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FC Flora Tallinn  - Kalev Tallinn: 17:00</t>
+          <t>Olympique Marseille  - Le Havre AC: 20:05</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4.02</v>
+        <v>3.24</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FC Flora Tallinn</t>
+          <t>Olympique Marseille</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -1202,30 +1267,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Thep Xanh Nam Dinh FC  - Becamex Ho Chi Minh City FC: 12:00</t>
+          <t>Song Lam Nghe An FC - Cong An Ha Noi FC : 1:1</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Thep Xanh Nam Dinh FC</t>
+          <t>Cong An Ha Noi FC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1236,30 +1301,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Kalmar FF  - IK Oddevold: 14:00</t>
+          <t>Jeonbuk Hyundai Motors ✓ - Suwon FC: 2:0</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.16</v>
+        <v>2.18</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Kalmar FF</t>
+          <t>Jeonbuk Hyundai Motors</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1270,27 +1340,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SK Slavia Prague  - FC Zlin: 17:00</t>
+          <t>Al-Shahania SC - Al-Rayyan SC : 15:30</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.22</v>
+        <v>2.18</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SK Slavia Prague</t>
+          <t>Al-Rayyan SC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -1304,15 +1374,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Jwaya SC  - Racing Club Beirut: 13:00</t>
+          <t>Niki Volou ✓ - AO Kavala: 6:0</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jwaya SC</t>
+          <t>Niki Volou</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1320,11 +1390,16 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -1338,15 +1413,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Lokomotiv Tashkent  - FK FarDU: 11:00</t>
+          <t>Al-Ansar FC ✓ - Safa Beirut SC: 1:0</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Lokomotiv Tashkent</t>
+          <t>Al-Ansar FC</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1354,14 +1429,19 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1372,30 +1452,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FC Barcelona  - Girona FC: 15:15</t>
+          <t>Spartak Moscow  - FC Rostov: 1:1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3.86</v>
+        <v>2.49</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FC Barcelona</t>
+          <t>Spartak Moscow</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1406,30 +1486,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Al-Wasl FC  - Al-Nasr SC (UAE): 16:45</t>
+          <t>The Strongest La Paz ✓ - Club Independiente Petrolero: 3:1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2.02</v>
+        <v>3.05</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Al-Wasl FC</t>
+          <t>The Strongest La Paz</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1440,27 +1525,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Maharlika FC  - Philippine Army FC: 07:00</t>
+          <t>Shan United ✓ - Dagon Star United: 4:0</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2.49</v>
+        <v>1.42</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Maharlika FC</t>
+          <t>Shan United</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -1474,30 +1564,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FC College 1975 - Lincoln Red Imps FC : 15:30</t>
+          <t>Belshina Bobruisk ✓ - Bumprom Gomel: 2:0</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2.22</v>
+        <v>1.28</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps FC</t>
+          <t>Belshina Bobruisk</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1508,765 +1603,56 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Holyhead Hotspur - Airbus UK Broughton : 14:00</t>
+          <t>FC Kuressaare - FCI Levadia ✓: 0:3</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3.85</v>
+        <v>2.76</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Airbus UK Broughton</t>
+          <t>FCI Levadia</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Sat Oct 18</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Fulham FC - Arsenal FC : 17:30</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Arsenal FC</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>60%</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>47</v>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Sat Oct 18</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Charleston Battery  - Detroit City FC: 23:00</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Charleston Battery</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>60%</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>23</v>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Sat Oct 18</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>V-Varen Nagasaki  - Ventforet Kofu: 09:00</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>V-Varen Nagasaki</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>60%</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Sat Oct 18</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Al-Ain FC  - FC Baniyas: 14:05</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Al-Ain FC</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>59%</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>19</v>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Sat Oct 18</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>SK Brann  - FK Haugesund: 17:00</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>SK Brann</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>59%</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>17</v>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Sat Oct 18</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Club Nacional  - Miramar Misiones: 22:30</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Club Nacional</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>59%</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>52</v>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Sat Oct 18</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>SC Paderborn 07  - Arminia Bielefeld: 12:00</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>SC Paderborn 07</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>58%</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>12</v>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Sat Oct 18</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Glentoran FC  - Ballymena United FC: 15:00</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Glentoran FC</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>58%</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>15</v>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Sat Oct 18</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Olympique Marseille  - Le Havre AC: 20:05</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Olympique Marseille</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>58%</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>25</v>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Sat Oct 18</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Song Lam Nghe An FC - Cong An Ha Noi FC : 12:00</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Cong An Ha Noi FC</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>58%</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>12</v>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Sat Oct 18</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Jeonbuk Hyundai Motors  - Suwon FC: 06:00</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Jeonbuk Hyundai Motors</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>58%</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>6</v>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Sat Oct 18</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Al-Shahania SC - Al-Rayyan SC : 15:30</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Al-Rayyan SC</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>58%</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>45</v>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Sat Oct 18</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Polissya Zhytomyr - Shakhtar Donetsk : 16:00</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Shakhtar Donetsk</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>58%</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>16</v>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Sat Oct 18</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Niki Volou  - AO Kavala: 14:00</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Niki Volou</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>57%</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>14</v>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Sat Oct 18</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Al-Ansar FC  - Safa Beirut SC: 14:15</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Al-Ansar FC</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>56%</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>29</v>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Sat Oct 18</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Spartak Moscow  - FC Rostov: 13:15</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Spartak Moscow</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>56%</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>28</v>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Sat Oct 18</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Al-Ettifaq FC - Al-Hilal SFC : 15:45</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Al-Hilal SFC</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>56%</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>60</v>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Sat Oct 18</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Shan United  - Dagon Star United: 10:00</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Shan United</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>55%</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Sat Oct 18</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Oud-Heverlee Leuven - Club Brugge KV : 17:15</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Club Brugge KV</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>55%</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>32</v>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Sat Oct 18</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Belshina Bobruisk  - Bumprom Gomel: 11:00</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Belshina Bobruisk</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>55%</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>11</v>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Sat Oct 18</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>FC Kuressaare - FCI Levadia : 12:30</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>FCI Levadia</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>55%</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>42</v>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="K54">
+      <c r="K33">
         <f>COUNTIF(I:I,TRUE)</f>
         <v/>
       </c>
-      <c r="L54">
-        <f>(K54/K56)*100</f>
+      <c r="L33">
+        <f>(K33/K35)*100</f>
         <v/>
       </c>
     </row>
-    <row r="55">
-      <c r="K55">
+    <row r="34">
+      <c r="K34">
         <f>COUNTIF(I:I,FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="56">
-      <c r="K56">
-        <f>K54+K55</f>
+    <row r="35">
+      <c r="K35">
+        <f>K33+K34</f>
         <v/>
       </c>
     </row>

--- a/2025-10-18/18_fixtures.xlsx
+++ b/2025-10-18/18_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Al-Nassr FC  - Al-Fateh SC: 19:00</t>
+          <t>Al-Nassr FC ✓ - Al-Fateh SC: 5:1</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -546,8 +546,13 @@
           <t>74%</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H3" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -600,15 +605,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>POT Iraklis Thessaloniki ✓ - PAOK Thessaloniki B: 2:1</t>
+          <t>Al-Rayyan SC  - Al-Waab SC: 2:2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.75</v>
+        <v>1.51</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>POT Iraklis Thessaloniki</t>
+          <t>Al-Rayyan SC</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -616,16 +621,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>71%</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>✓</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -639,15 +639,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AS Saint-Étienne  - Le Mans FC: 19:00</t>
+          <t>GNK Dinamo Zagreb ✓ - NK Osijek: 2:1</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AS Saint-Étienne</t>
+          <t>GNK Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -655,14 +655,19 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -673,15 +678,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vorskla Poltava - Bukovyna Chernivtsi ✓: 0:2</t>
+          <t>Mold Alexandra - The New Saints ✓: 1:2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.12</v>
+        <v>1.91</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bukovyna Chernivtsi</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -689,7 +694,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -698,10 +703,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -712,30 +717,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FC Paços de Ferreira - Sporting CP : 20:15</t>
+          <t>Bayern Munich ✓ - Borussia Dortmund: 2:1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.31</v>
+        <v>3.08</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -746,30 +756,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>UE Santa Coloma B - Sporting Club Escaldes : 19:30</t>
+          <t>PSV Eindhoven ✓ - Go Ahead Eagles: 2:1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.64</v>
+        <v>4.18</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sporting Club Escaldes</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -780,23 +795,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Västerås SK ✓ - GIF Sundsvall: 2:1</t>
+          <t>FC Basel 1893 ✓ - FC Winterthur: 3:0</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.54</v>
+        <v>4.2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Västerås SK</t>
+          <t>FC Basel 1893</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -808,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -819,15 +834,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FC Zbrojovka Brno ✓ - FC Banik Ostrava B: 4:1</t>
+          <t>POT Iraklis Thessaloniki ✓ - PAOK Thessaloniki B: 2:1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FC Zbrojovka Brno</t>
+          <t>POT Iraklis Thessaloniki</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -835,7 +850,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -844,7 +859,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -858,35 +873,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Thep Xanh Nam Dinh FC X - Becamex Ho Chi Minh City FC: 1:2</t>
+          <t>Yantra Gabrovo  - Lokomotiv Gorna Oryahovitsa: 2:2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.4</v>
+        <v>0.98</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thep Xanh Nam Dinh FC</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>67%</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -897,28 +907,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kalmar FF ✓ - IK Oddevold: 3:2</t>
+          <t>AS Saint-Étienne X - Le Mans FC: 2:3</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.16</v>
+        <v>3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Kalmar FF</t>
+          <t>AS Saint-Étienne</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -936,15 +946,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jwaya SC ✓ - Racing Club Beirut: 7:0</t>
+          <t>Vorskla Poltava - Bukovyna Chernivtsi ✓: 0:2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.5</v>
+        <v>1.12</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jwaya SC</t>
+          <t>Bukovyna Chernivtsi</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -952,7 +962,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -961,10 +971,10 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -975,27 +985,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Lokomotiv Tashkent  - FK FarDU: 11:00</t>
+          <t>FC Paços de Ferreira - Sporting CP ✓: 2:3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.33</v>
+        <v>2.31</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Lokomotiv Tashkent</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -1009,15 +1024,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Maharlika FC ✓ - Philippine Army FC: 5:1</t>
+          <t>UE Santa Coloma B - Sporting Club Escaldes ✓: 0:3</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.49</v>
+        <v>2.64</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Maharlika FC</t>
+          <t>Sporting Club Escaldes</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1025,7 +1040,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1034,10 +1049,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1048,27 +1063,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Charleston Battery  - Detroit City FC: 23:00</t>
+          <t>Västerås SK ✓ - GIF Sundsvall: 2:1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.05</v>
+        <v>1.54</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Charleston Battery</t>
+          <t>Västerås SK</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -1082,35 +1102,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>V-Varen Nagasaki ✓ - Ventforet Kofu: 4:0</t>
+          <t>Ironi Kiryat Shmona - Hapoel Beer Sheva X: 1:0</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.62</v>
+        <v>2.2</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>V-Varen Nagasaki</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1121,23 +1141,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Al-Ain FC ✓ - FC Baniyas: 4:0</t>
+          <t>Basaksehir FK - Galatasaray ✓: 1:2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.73</v>
+        <v>2.83</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Al-Ain FC</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1146,10 +1166,10 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1160,27 +1180,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Club Nacional  - Miramar Misiones: 22:30</t>
+          <t>FC Zbrojovka Brno ✓ - FC Banik Ostrava B: 4:1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.46</v>
+        <v>1.68</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Club Nacional</t>
+          <t>FC Zbrojovka Brno</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -1194,23 +1219,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SC Paderborn 07 ✓ - Arminia Bielefeld: 4:3</t>
+          <t>FC Flora Tallinn ✓ - Kalev Tallinn: 6:0</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.65</v>
+        <v>4.02</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SC Paderborn 07</t>
+          <t>FC Flora Tallinn</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1219,7 +1244,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -1233,15 +1258,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Olympique Marseille  - Le Havre AC: 20:05</t>
+          <t>Thep Xanh Nam Dinh FC X - Becamex Ho Chi Minh City FC: 1:2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3.24</v>
+        <v>3.4</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Olympique Marseille</t>
+          <t>Thep Xanh Nam Dinh FC</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1249,14 +1274,19 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1267,23 +1297,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Song Lam Nghe An FC - Cong An Ha Noi FC : 1:1</t>
+          <t>Manchester City ✓ - Everton FC: 2:0</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cong An Ha Noi FC</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1301,23 +1336,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Jeonbuk Hyundai Motors ✓ - Suwon FC: 2:0</t>
+          <t>Kalmar FF ✓ - IK Oddevold: 3:2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.18</v>
+        <v>1.16</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jeonbuk Hyundai Motors</t>
+          <t>Kalmar FF</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1326,10 +1361,10 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1340,30 +1375,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Al-Shahania SC - Al-Rayyan SC : 15:30</t>
+          <t>SK Slavia Prague  - FC Zlin: 0:0</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.18</v>
+        <v>1.22</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Al-Rayyan SC</t>
+          <t>SK Slavia Prague</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1374,15 +1409,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Niki Volou ✓ - AO Kavala: 6:0</t>
+          <t>Jwaya SC ✓ - Racing Club Beirut: 7:0</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Niki Volou</t>
+          <t>Jwaya SC</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1390,7 +1425,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1399,7 +1434,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -1413,15 +1448,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Al-Ansar FC ✓ - Safa Beirut SC: 1:0</t>
+          <t>Lokomotiv Tashkent  - FK FarDU: 2:2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Al-Ansar FC</t>
+          <t>Lokomotiv Tashkent</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1429,19 +1464,14 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>56%</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>✓</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1452,27 +1482,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Spartak Moscow  - FC Rostov: 1:1</t>
+          <t>FC Barcelona ✓ - Girona FC: 2:1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.49</v>
+        <v>3.86</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Spartak Moscow</t>
+          <t>FC Barcelona</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -1486,23 +1521,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>The Strongest La Paz ✓ - Club Independiente Petrolero: 3:1</t>
+          <t>Al-Wasl FC ✓ - Al-Nasr SC (UAE): 2:1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3.05</v>
+        <v>2.02</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>The Strongest La Paz</t>
+          <t>Al-Wasl FC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1511,7 +1546,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
@@ -1525,23 +1560,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Shan United ✓ - Dagon Star United: 4:0</t>
+          <t>Maharlika FC ✓ - Philippine Army FC: 5:1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.42</v>
+        <v>2.49</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Shan United</t>
+          <t>Maharlika FC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1550,7 +1585,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -1564,23 +1599,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Belshina Bobruisk ✓ - Bumprom Gomel: 2:0</t>
+          <t>FC College 1975 - Lincoln Red Imps FC ✓: 0:3</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.28</v>
+        <v>2.22</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Belshina Bobruisk</t>
+          <t>Lincoln Red Imps FC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1589,7 +1624,7 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -1603,56 +1638,889 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>Holyhead Hotspur - Airbus UK Broughton ✓: 2:5</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Airbus UK Broughton</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sat Oct 18</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fulham FC - Arsenal FC ✓: 0:1</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Arsenal FC</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sat Oct 18</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Charleston Battery  - Detroit City FC: 1:1</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Charleston Battery</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Sat Oct 18</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>V-Varen Nagasaki ✓ - Ventforet Kofu: 4:0</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>V-Varen Nagasaki</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Sat Oct 18</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Al-Ain FC ✓ - FC Baniyas: 4:0</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Al-Ain FC</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Sat Oct 18</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Club Nacional ✓ - Miramar Misiones: 3:1</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Club Nacional</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Sat Oct 18</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SC Paderborn 07 ✓ - Arminia Bielefeld: 4:3</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SC Paderborn 07</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Sat Oct 18</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Glentoran FC ✓ - Ballymena United FC: 2:0</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Glentoran FC</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sat Oct 18</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Olympique Marseille ✓ - Le Havre AC: 6:2</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sat Oct 18</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Song Lam Nghe An FC - Cong An Ha Noi FC : 1:1</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Cong An Ha Noi FC</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Sat Oct 18</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Jeonbuk Hyundai Motors ✓ - Suwon FC: 2:0</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Jeonbuk Hyundai Motors</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Sat Oct 18</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Al-Shahania SC - Al-Rayyan SC : 15:30</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Al-Rayyan SC</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>45</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sat Oct 18</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Polissya Zhytomyr - Shakhtar Donetsk : 0:0</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Shakhtar Donetsk</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Sat Oct 18</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SK Brann ✓ - FK Haugesund: 4:1</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>SK Brann</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Sat Oct 18</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Niki Volou ✓ - AO Kavala: 6:0</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Niki Volou</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Sat Oct 18</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Al-Ansar FC ✓ - Safa Beirut SC: 1:0</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Al-Ansar FC</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Sat Oct 18</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Spartak Moscow  - FC Rostov: 1:1</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Spartak Moscow</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sat Oct 18</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Al-Ettifaq FC - Al-Hilal SFC ✓: 0:5</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Al-Hilal SFC</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Sat Oct 18</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>The Strongest La Paz ✓ - Club Independiente Petrolero: 3:1</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>The Strongest La Paz</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Sat Oct 18</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Shan United ✓ - Dagon Star United: 4:0</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Shan United</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Sat Oct 18</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Oud-Heverlee Leuven - Club Brugge KV ✓: 0:1</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Club Brugge KV</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Sat Oct 18</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Belshina Bobruisk ✓ - Bumprom Gomel: 2:0</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Belshina Bobruisk</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Sat Oct 18</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>FC Kuressaare - FCI Levadia ✓: 0:3</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="C54" t="n">
         <v>2.76</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>FCI Levadia</t>
         </is>
       </c>
-      <c r="E32" t="n">
+      <c r="E54" t="n">
         <v>3.5</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>55%</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
         <v>3</v>
       </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="K33">
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="K55">
         <f>COUNTIF(I:I,TRUE)</f>
         <v/>
       </c>
-      <c r="L33">
-        <f>(K33/K35)*100</f>
+      <c r="L55">
+        <f>(K55/K57)*100</f>
         <v/>
       </c>
     </row>
-    <row r="34">
-      <c r="K34">
+    <row r="56">
+      <c r="K56">
         <f>COUNTIF(I:I,FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="35">
-      <c r="K35">
-        <f>K33+K34</f>
+    <row r="57">
+      <c r="K57">
+        <f>K55+K56</f>
         <v/>
       </c>
     </row>
